--- a/results/I3_N5_M2_T15_C100_DepCentral_s2_P6_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s2_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1575.886724749111</v>
+        <v>1287.706724749106</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006000041961669922</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.62751920310701</v>
+        <v>6.764977035052401</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.619878869364404</v>
+        <v>5.757336701309795</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1082.720000000004</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.46</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,50 +645,6 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -890,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -978,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>10.17182228993174</v>
       </c>
     </row>
     <row r="6">
@@ -994,7 +950,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.516731437002262</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1205,62 +1161,6 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>186.6</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -1374,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>173.4900000000012</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -1385,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>174.5700000000012</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1396,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>174.55</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -1407,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>177.9100000000012</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -1418,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>145.6250000000013</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1429,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>139.0900000000013</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1440,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>138.1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1451,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>139.1300000000013</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1462,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4400000000013</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1473,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>129.6099999999997</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
@@ -1484,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>133.0649999999997</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
@@ -1495,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>124.1349999999997</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -1506,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>132.8049999999997</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1517,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>134.6249999999997</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -1528,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>93.39000000000037</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -1539,7 +1439,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>93.47500000000036</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -1550,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>91.28000000000037</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -1561,7 +1461,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>91.81500000000037</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
@@ -1572,7 +1472,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>93.57500000000036</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
@@ -1583,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>41.18000000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1594,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>37.41500000000073</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1605,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>34.38500000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1616,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>34.59500000000072</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1627,7 +1527,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>36.59000000000073</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1638,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>186.6</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33">
@@ -1649,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>173.4900000000012</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34">
@@ -1660,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>174.5700000000012</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35">
@@ -1671,7 +1571,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>174.55</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36">
@@ -1682,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>177.9100000000012</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37">
@@ -1693,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>129.6099999999997</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
@@ -1704,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>133.0649999999997</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39">
@@ -1715,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>124.1349999999997</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40">
@@ -1726,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>132.8049999999997</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1737,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>134.6249999999997</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>86.59999999999999</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -1795,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>73.49000000000117</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -1806,7 +1706,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>74.57000000000119</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1817,7 +1717,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>74.55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -1828,7 +1728,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>77.91000000000116</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -1839,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>29.60999999999973</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1850,7 +1750,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>33.06499999999971</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1861,7 +1761,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>24.13499999999972</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1872,7 +1772,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>32.80499999999972</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1883,7 +1783,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>34.62499999999972</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1941,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1952,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1963,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1974,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1985,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1996,7 +1896,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2007,7 +1907,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -2018,7 +1918,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2029,7 +1929,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2051,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2062,7 +1962,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>5.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2073,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2084,7 +1984,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>4.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2095,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>12.78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -2106,7 +2006,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>19.015</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -2117,7 +2017,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>11.29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -2128,7 +2028,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>18.235</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -2139,7 +2039,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>14.1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -2150,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>11.055</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2161,7 +2061,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>6.935</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2172,7 +2072,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>10.14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2183,7 +2083,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>11.19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2194,7 +2094,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>14.21</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
